--- a/Initial_Prototype_UI/Outputs/183D1PLZ_平面図04_OUT2.xlsx
+++ b/Initial_Prototype_UI/Outputs/183D1PLZ_平面図04_OUT2.xlsx
@@ -1,17 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+  <si>
+    <t>3DPOLY</t>
+  </si>
+  <si>
+    <t>55.0058,248.63,44.39999999999998</t>
+  </si>
+  <si>
+    <t>73.6226,255.93835,43.39999999999998</t>
+  </si>
+  <si>
+    <t>92.3082,263.0689,42.39999999999998</t>
+  </si>
+  <si>
+    <t>111.07825,269.974,41.39999999999998</t>
+  </si>
+  <si>
+    <t>129.9466,276.6055,40.39999999999998</t>
+  </si>
+  <si>
+    <t>148.92345,282.9196,39.39999999999998</t>
+  </si>
+  <si>
+    <t>148.92345,282.9196,38.39999999999998</t>
+  </si>
+  <si>
+    <t>168.00725,288.9027,37.39999999999998</t>
+  </si>
+  <si>
+    <t>187.19225,294.5531,36.39999999999998</t>
+  </si>
+  <si>
+    <t>206.4726,299.86895,35.39999999999998</t>
+  </si>
+  <si>
+    <t>225.8425,304.8487,34.39999999999998</t>
+  </si>
+  <si>
+    <t>245.296,309.4909,33.39999999999998</t>
+  </si>
+  <si>
+    <t>264.82735,313.79404999999997,32.39999999999998</t>
+  </si>
+  <si>
+    <t>284.43055000000004,317.7569,31.399999999999977</t>
+  </si>
+  <si>
+    <t>304.0997,321.37825,30.399999999999977</t>
+  </si>
+  <si>
+    <t>323.82885,324.65695,29.399999999999977</t>
+  </si>
+  <si>
+    <t>343.61205,327.59215,28.399999999999977</t>
+  </si>
+  <si>
+    <t>363.4433,330.1828,27.399999999999977</t>
+  </si>
+  <si>
+    <t>383.3166,332.4282,26.399999999999977</t>
+  </si>
+  <si>
+    <t>403.2259,334.32765,25.399999999999977</t>
+  </si>
+  <si>
+    <t>423.1653,335.88054999999997,24.398000000000025</t>
+  </si>
+  <si>
+    <t>443.12865,337.08655,23.338000000000022</t>
+  </si>
+  <si>
+    <t>463.11,337.94515,22.19799999999998</t>
+  </si>
+  <si>
+    <t>463.11,337.94515,21.0</t>
+  </si>
+  <si>
+    <t>483.10315,338.4561,0.0</t>
+  </si>
+  <si>
+    <t>503.10225,338.6193,0.0</t>
+  </si>
+  <si>
+    <t>523.1012000000001,338.4347,0.0</t>
+  </si>
+  <si>
+    <t>543.0938,337.90235,0.0</t>
+  </si>
+  <si>
+    <t>563.0742,337.02234999999996,0.0</t>
+  </si>
+  <si>
+    <t>583.0363,335.79505,0.0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,74 +176,6 @@
     <cellStyle name="Pandas" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -446,7 +476,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -539,164 +569,102 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="n"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>3DPOLY</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>55.0058,248.63,44.39999999999998</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>73.6226,255.93835,43.39999999999998</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>92.3082,263.0689,42.39999999999998</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>111.07825,269.974,41.39999999999998</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>129.9466,276.6055,40.39999999999998</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>148.92345,282.9196,39.39999999999998</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>148.92345,282.9196,38.39999999999998</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>168.00725,288.9027,37.39999999999998</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>187.19225,294.5531,36.39999999999998</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>206.4726,299.86895,35.39999999999998</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>225.8425,304.8487,34.39999999999998</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>245.296,309.4909,33.39999999999998</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>264.82735,313.79404999999997,32.39999999999998</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>284.43055000000004,317.7569,31.399999999999977</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>304.0997,321.37825,30.399999999999977</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>323.82885,324.65695,29.399999999999977</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>343.61205,327.59215,28.399999999999977</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>363.4433,330.1828,27.399999999999977</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>383.3166,332.4282,26.399999999999977</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>403.2259,334.32765,25.399999999999977</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>423.1653,335.88054999999997,24.398000000000025</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>443.12865,337.08655,23.338000000000022</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>463.11,337.94515,22.19799999999998</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>463.11,337.94515,21.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>483.10315,338.4561,0.0</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>503.10225,338.6193,0.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>523.1012000000001,338.4347,0.0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>543.0938,337.90235,0.0</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>563.0742,337.02234999999996,0.0</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>583.0363,335.79505,0.0</t>
-        </is>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
